--- a/data/trans_dic/P16A98-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A98-Provincia-trans_dic.xlsx
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,64</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,54</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,0</t>
+          <t>0,0; 5,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,96</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,74</t>
+          <t>0,37; 3,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,39</t>
+          <t>1,21; 5,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,24</t>
+          <t>0,0; 2,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,89</t>
+          <t>3,3; 12,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,65</t>
+          <t>2,52; 6,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,49</t>
+          <t>0,66; 6,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,82</t>
+          <t>0,0; 3,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,82</t>
+          <t>0,0; 3,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 15,79</t>
+          <t>3,78; 16,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,34</t>
+          <t>2,45; 7,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,2</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,88</t>
+          <t>0,68; 3,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,82</t>
+          <t>0,51; 4,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,65</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 13,11</t>
+          <t>4,48; 13,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 13,83</t>
+          <t>2,07; 13,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,31</t>
+          <t>0,0; 1,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,12</t>
+          <t>2,4; 6,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,12</t>
+          <t>1,57; 6,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,18</t>
+          <t>0,0; 5,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 11,5</t>
+          <t>1,9; 11,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,23</t>
+          <t>0,0; 4,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 20,86</t>
+          <t>2,26; 20,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,73</t>
+          <t>0,0; 6,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,47</t>
+          <t>0,0; 3,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 10,96</t>
+          <t>2,81; 11,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>0,0; 3,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,31</t>
+          <t>0,86; 7,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>0,0; 4,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,88</t>
+          <t>0,0; 5,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,2</t>
+          <t>1,61; 13,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,97</t>
+          <t>0,0; 7,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,24</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 7,24</t>
+          <t>1,21; 7,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,48</t>
+          <t>0,45; 4,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,78</t>
+          <t>0,93; 4,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 12,05</t>
+          <t>4,76; 12,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,99</t>
+          <t>0,27; 2,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,98</t>
+          <t>2,91; 6,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,23</t>
+          <t>0,12; 1,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,61</t>
+          <t>0,45; 2,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1729,12 +1729,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,0</t>
+          <t>0,65; 4,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,63</t>
+          <t>0,76; 2,56</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,66</t>
+          <t>0,17; 1,67</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,37</t>
+          <t>0,04; 0,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,04</t>
+          <t>1,59; 3,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,26</t>
+          <t>0,4; 1,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,77</t>
+          <t>0,08; 0,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,24</t>
+          <t>4,34; 7,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,2</t>
+          <t>0,67; 2,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,44</t>
+          <t>0,08; 0,43</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,32</t>
+          <t>2,92; 4,38</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,38</t>
+          <t>0,65; 1,41</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P16A98-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A98-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,32</t>
+          <t>0,0; 5,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,11</t>
+          <t>0,0; 4,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,96</t>
+          <t>0,0; 6,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,55</t>
+          <t>0,37; 3,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,38</t>
+          <t>1,19; 5,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,38</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 12,29</t>
+          <t>2,84; 11,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,59</t>
+          <t>2,34; 6,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,34</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,05</t>
+          <t>0,66; 6,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,34</t>
+          <t>0,0; 3,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,77</t>
+          <t>0,0; 4,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 16,15</t>
+          <t>3,39; 15,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,67</t>
+          <t>2,45; 7,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,77</t>
+          <t>0,65; 4,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,51</t>
+          <t>0,52; 4,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,45</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 13,08</t>
+          <t>4,56; 13,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 13,36</t>
+          <t>2,02; 13,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,62</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,03</t>
+          <t>2,4; 6,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,81</t>
+          <t>1,48; 7,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,82</t>
+          <t>0,0; 6,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 11,46</t>
+          <t>1,9; 11,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,06</t>
+          <t>0,0; 3,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 20,03</t>
+          <t>2,27; 20,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,46</t>
+          <t>0,0; 7,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,32</t>
+          <t>0,0; 3,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 11,57</t>
+          <t>3,38; 11,18</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,44</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,32</t>
+          <t>0,86; 7,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,84</t>
+          <t>0,0; 4,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,92</t>
+          <t>0,0; 5,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 13,36</t>
+          <t>0,38; 11,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,58</t>
+          <t>0,0; 8,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 7,37</t>
+          <t>1,22; 7,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,36</t>
+          <t>0,45; 4,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,78</t>
+          <t>0,91; 4,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,76; 12,06</t>
+          <t>4,7; 12,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,67</t>
+          <t>0,27; 3,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,78</t>
+          <t>3,03; 6,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,35</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,57</t>
+          <t>0,46; 2,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1729,12 +1729,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,2</t>
+          <t>0,66; 4,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,56</t>
+          <t>0,77; 2,64</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,67</t>
+          <t>0,16; 1,66</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,42</t>
+          <t>0,04; 0,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,01</t>
+          <t>1,55; 3,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,22</t>
+          <t>0,42; 1,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,75</t>
+          <t>0,08; 0,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,27</t>
+          <t>4,32; 7,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,06</t>
+          <t>0,75; 2,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,43</t>
+          <t>0,08; 0,41</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,38</t>
+          <t>2,88; 4,35</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,41</t>
+          <t>0,63; 1,4</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
